--- a/data/trans_dic/P31_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P31_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>99,5%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>98,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>98,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>99,58%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>98,44%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>98,13%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>98,13%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>98,78%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>98,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>98,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>97,89%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>98,02%</t>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,38; 98,71</t>
+          <t>93,06; 99,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,95; 98,58</t>
+          <t>95,52; 99,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,98; 98,75</t>
+          <t>94,83; 98,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>97,69; 100,0</t>
+          <t>93,72; 99,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,48; 99,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,79; 99,2</t>
+          <t>97,53; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>96,49; 98,83</t>
+          <t>95,99; 99,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,56; 98,93</t>
+          <t>97,36; 99,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>97,94; 100,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>96,43; 99,44</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>96,63; 99,15</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>96,86; 98,97</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>97,09; 99,68</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>87,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>96,26%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>97,37%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96,38%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>97,54%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>96,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>93,09%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>95,44%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>91,6%</t>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>95,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>91,56%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>92,83%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,02; 92,27</t>
+          <t>84,98; 92,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,98; 95,15</t>
+          <t>91,15; 95,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,97; 90,57</t>
+          <t>83,72; 90,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,85; 97,87</t>
+          <t>83,41; 91,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,98; 98,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,54; 97,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,22; 94,66</t>
+          <t>93,88; 97,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,11; 96,56</t>
+          <t>95,57; 98,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,55; 93,28</t>
+          <t>94,63; 97,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>95,36; 98,76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>90,73; 94,59</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>93,99; 96,71</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>89,71; 93,35</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>90,38; 94,98</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>86,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>97,44%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>93,73%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>93,85%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>91,34%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>91,45%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,52; 93,59</t>
+          <t>85,96; 93,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,05; 92,45</t>
+          <t>84,58; 92,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,1; 88,49</t>
+          <t>80,7; 88,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,76; 98,53</t>
+          <t>81,36; 90,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,46; 98,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,85; 98,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,88; 95,41</t>
+          <t>94,23; 98,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,93; 95,43</t>
+          <t>96,75; 99,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,19; 93,11</t>
+          <t>95,79; 98,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92,09; 97,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>90,99; 95,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>91,4; 95,62</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>89,03; 93,23</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>88,07; 93,77</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>95,32%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>95,6%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>93,57%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,61; 93,12</t>
+          <t>89,95; 94,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,49; 94,32</t>
+          <t>89,19; 95,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,52; 90,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 98,2</t>
+          <t>82,49; 92,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,19; 98,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,41; 98,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,27; 95,37</t>
+          <t>96,75; 99,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,66; 96,37</t>
+          <t>97,13; 99,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,86; 94,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96,09; 99,27</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>93,72; 96,54</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>93,43; 96,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>89,56; 95,46</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>91,6%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92,96%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>88,55%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89,38%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>97,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>98,08%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>97,34%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>97,72%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>94,64%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>95,56%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>93,01%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>93,63%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>89,74; 93,15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>91,59; 94,41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86,39; 90,48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>86,58; 91,41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>96,51; 98,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>97,28; 98,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>96,4; 98,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>96,6; 98,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>93,59; 95,47</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>94,62; 96,31</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>91,95; 94,06</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>91,91; 94,71</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>657.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>329519</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>499238</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>706818</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>417413</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>415072</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>607787</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>882794</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>607988</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>744590</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1107025</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1589612</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1025401</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>315658; 336603</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>485746; 506166</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>688737; 716948</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>400636; 424725</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>406864; 417178</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>594773; 615751</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>869985; 890055</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>597981; 610528</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>729404; 752141</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1090118; 1118532</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1569100; 1603245</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1007840; 1034730</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>535.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>635.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>961.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1185.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>641.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>823921</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1113909</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1413073</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>915005</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>952499</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1176275</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1441356</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1008958</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1776420</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2290184</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2854429</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1923963</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>784857; 851736</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1082963; 1137667</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1357984; 1466118</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>865976; 951619</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>928940; 967160</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1154544; 1190439</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1415088; 1460400</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>986378; 1021538</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1735633; 1809525</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2252076; 2317412</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2796851; 2910276</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1873180; 1968568</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>569.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>515.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>754.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>969.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>581.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>642181</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>753427</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>928006</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>700498</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>737345</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>897986</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1129848</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>801821</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1379526</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1651414</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2057855</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1502320</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>612709; 665879</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>715243; 782567</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>882406; 968542</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>656174; 732558</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>715276; 749381</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>884257; 906242</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1110639; 1142134</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>770077; 817245</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1339258; 1405375</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1608329; 1682489</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2005838; 2100356</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1446780; 1540438</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>495.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>917.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>618.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>584.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1324598</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>784277</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>902117</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1346244</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>742506</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>917041</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2670842</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1526782</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1819158</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1287089; 1357309</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>755516; 806430</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>834537; 939143</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1326575; 1360826</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>728463; 747999</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>896059; 925697</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2626151; 2704948</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1492166; 1548950</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1741234; 1855874</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1038.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1240.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1203.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>900.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1289.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1566.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1608.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1179.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2327.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2806.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2811.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2079.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3120219</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3150851</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3047897</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2935034</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3451158</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3424553</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3453999</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3335809</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6571379</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6575405</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6501896</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6270843</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3056920; 3173054</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3104271; 3199973</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2973479; 3114259</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2843075; 3001750</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3413286; 3475746</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3396776; 3446068</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3420832; 3478841</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3297445; 3360246</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6498275; 6628607</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6510845; 6626657</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6427727; 6575153</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>6155620; 6343424</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
